--- a/Finflux Automation Excels/Client/3042-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3042-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -202,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +229,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -303,11 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,6 +357,25 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +385,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -396,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,9 +469,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,6 +521,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,18 +726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>42036</v>
       </c>
     </row>
@@ -682,13 +756,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,80 +786,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>785.8</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>668.41</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>101.92</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>566.49</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>1200</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>100</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>1100</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -798,674 +872,675 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="13.85546875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20">
         <v>42005</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="21">
         <v>10000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="19">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="20">
         <v>42036</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="20">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="7">
+      <c r="E3" s="22"/>
+      <c r="F3" s="19">
         <v>785.8</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="23">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="19">
         <v>101.92</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="19">
         <v>100</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
         <v>987.72</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="19">
         <v>987.72</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="19">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="20">
         <v>42064</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
         <v>802.9</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="23">
         <v>8411.2999999999993</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="19">
         <v>84.82</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="19">
         <v>100</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
         <v>987.72</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="19">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="20">
         <v>42095</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
         <v>793.81</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="23">
         <v>7617.49</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="19">
         <v>93.91</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="19">
         <v>100</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
         <v>987.72</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="19">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="20">
         <v>42125</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
         <v>812.59</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="23">
         <v>6804.9</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="19">
         <v>75.13</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="19">
         <v>100</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
         <v>987.72</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="19">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="20">
         <v>42156</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
         <v>818.37</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="23">
         <v>5986.53</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="19">
         <v>69.349999999999994</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="19">
         <v>100</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
         <v>987.72</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="19">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="20">
         <v>42186</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>828.67</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="23">
         <v>5157.8599999999997</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="19">
         <v>59.05</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="19">
         <v>100</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
         <v>987.72</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="19">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="20">
         <v>42217</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>835.15</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="23">
         <v>4322.71</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="19">
         <v>52.57</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="19">
         <v>100</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
         <v>987.72</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="19">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="20">
         <v>42248</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
         <v>843.66</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="23">
         <v>3479.05</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="19">
         <v>44.06</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="19">
         <v>100</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
         <v>987.72</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="19">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="20">
         <v>42278</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19">
         <v>853.41</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="23">
         <v>2625.64</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="19">
         <v>34.31</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="19">
         <v>100</v>
       </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
         <v>987.72</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="19">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="20">
         <v>42309</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19">
         <v>860.96</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="23">
         <v>1764.68</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="19">
         <v>26.76</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="19">
         <v>100</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
         <v>987.72</v>
       </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="19">
         <v>30</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="20">
         <v>42339</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19">
         <v>870.31</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="19">
         <v>894.37</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="19">
         <v>17.41</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="19">
         <v>100</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
         <v>987.72</v>
       </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
         <v>987.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="19">
         <v>31</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="20">
         <v>42370</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19">
         <v>894.37</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="19">
         <v>100</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
         <v>1003.49</v>
       </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
         <v>1003.49</v>
       </c>
     </row>
@@ -1485,17 +1560,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1531,170 +1606,170 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>52</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>42095</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>193.91</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>93.91</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>100</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>51</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>42064</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>184.82</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>84.82</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>100</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>42036</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>987.72</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>785.8</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>101.92</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>100</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>47</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>42036</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>201.92</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>101.92</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>100</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>46</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>42005</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>10000</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1719,83 +1794,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>42005</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>42005</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="11"/>
       <c r="I3" t="s">
         <v>57</v>
       </c>
@@ -1821,135 +1896,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>178</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>179</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>42036</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>180</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>42036</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>181</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>42036</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1962,358 +2037,365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>158</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>159</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>42036</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>160</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>161</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>42036</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="14"/>
+    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>182</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>42064</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>183</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>42064</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>184</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>42064</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>185</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>42064</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>186</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>42095</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>187</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>42095</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>3</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>188</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>42095</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>189</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>42095</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/3042-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3042-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -207,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,21 +224,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -323,9 +303,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,25 +339,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,9 +348,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,26 +429,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,23 +464,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,18 +652,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="15">
         <v>42036</v>
       </c>
     </row>
@@ -756,13 +682,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,80 +712,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>785.8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>668.41</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>101.92</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>566.49</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>1200</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
         <v>1100</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -872,675 +798,674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="13.85546875" style="18"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="21">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="7">
         <v>31</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="19">
+      <c r="E3" s="11"/>
+      <c r="F3" s="7">
         <v>785.8</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="10">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="7">
         <v>101.92</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="7">
         <v>100</v>
       </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <v>987.72</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="7">
         <v>987.72</v>
       </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="7">
         <v>28</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="8">
         <v>42064</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>802.9</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="10">
         <v>8411.2999999999993</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="7">
         <v>84.82</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="7">
         <v>100</v>
       </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <v>987.72</v>
       </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="7">
         <v>31</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="8">
         <v>42095</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>793.81</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="10">
         <v>7617.49</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="7">
         <v>93.91</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="7">
         <v>100</v>
       </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>987.72</v>
       </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="8">
         <v>42125</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>812.59</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="10">
         <v>6804.9</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="7">
         <v>75.13</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="7">
         <v>100</v>
       </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
         <v>987.72</v>
       </c>
-      <c r="L6" s="19">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="7">
         <v>31</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="8">
         <v>42156</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>818.37</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="10">
         <v>5986.53</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="7">
         <v>69.349999999999994</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="7">
         <v>100</v>
       </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
         <v>987.72</v>
       </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="7">
         <v>30</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="8">
         <v>42186</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>828.67</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="10">
         <v>5157.8599999999997</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="7">
         <v>59.05</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="7">
         <v>100</v>
       </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
         <v>987.72</v>
       </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="19">
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="7">
         <v>31</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="8">
         <v>42217</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
         <v>835.15</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="10">
         <v>4322.71</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="7">
         <v>52.57</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="7">
         <v>100</v>
       </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
         <v>987.72</v>
       </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="7">
         <v>31</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="8">
         <v>42248</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>843.66</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="10">
         <v>3479.05</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="7">
         <v>44.06</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="7">
         <v>100</v>
       </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
         <v>987.72</v>
       </c>
-      <c r="L10" s="19">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="19">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="7">
         <v>30</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="8">
         <v>42278</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>853.41</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="10">
         <v>2625.64</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="7">
         <v>34.31</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="7">
         <v>100</v>
       </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>987.72</v>
       </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="19">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="7">
         <v>31</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="8">
         <v>42309</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>860.96</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="10">
         <v>1764.68</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="7">
         <v>26.76</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="7">
         <v>100</v>
       </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
         <v>987.72</v>
       </c>
-      <c r="L12" s="19">
-        <v>0</v>
-      </c>
-      <c r="M12" s="19">
-        <v>0</v>
-      </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="19">
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="7">
         <v>30</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="8">
         <v>42339</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>870.31</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="7">
         <v>894.37</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="7">
         <v>17.41</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="7">
         <v>100</v>
       </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
         <v>987.72</v>
       </c>
-      <c r="L13" s="19">
-        <v>0</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>987.72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="7">
         <v>31</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="8">
         <v>42370</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>894.37</v>
       </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <v>9.1199999999999992</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="7">
         <v>100</v>
       </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
         <v>1003.49</v>
       </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="23">
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <v>1003.49</v>
       </c>
     </row>
@@ -1560,17 +1485,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1606,170 +1531,170 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>52</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>42095</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>193.91</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
         <v>93.91</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>100</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>51</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>42064</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>184.82</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>84.82</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>100</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>50</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>42036</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>987.72</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>785.8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>101.92</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>100</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>9214.2000000000007</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>47</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>42036</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>201.92</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>101.92</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="7">
         <v>100</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>46</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>42005</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>10000</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1794,83 +1719,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="13">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <v>42005</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="13"/>
       <c r="I3" t="s">
         <v>57</v>
       </c>
@@ -1896,135 +1821,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>178</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>42036</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>179</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="12">
         <v>42036</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>180</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <v>42036</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>181</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>42036</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2037,365 +1962,358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>158</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="16">
         <v>42036</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>159</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>42036</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>160</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="16">
         <v>42036</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>161</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>42036</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>182</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>42064</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>183</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>42064</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>184</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <v>42064</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>185</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <v>42064</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="12">
         <v>186</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <v>42095</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>187</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>42095</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="12">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="12">
         <v>188</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="16">
         <v>42095</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <v>3</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>189</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="16">
         <v>42095</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="12">
         <v>3</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="12" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/3042-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/3042-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2049,7 +2049,8 @@
     <col min="4" max="4" width="14.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="10"/>
     <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="7" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
